--- a/save-the-data.xlsx
+++ b/save-the-data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t xml:space="preserve">Save the Date Card - 3.5x5</t>
   </si>
@@ -62,6 +62,12 @@
   <si>
     <t xml:space="preserve">Card Stock: 16 Pt. Uncoated (16pt)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Save the Date Card - 4.25x5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the Date Card - 5x7</t>
+  </si>
 </sst>
 </file>
 
@@ -70,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -97,13 +103,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF443205"/>
+        <bgColor rgb="FF333333"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,13 +157,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -158,6 +187,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF443205"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2034,10 +2123,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B245"/>
+  <dimension ref="A1:F992"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A724" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H749" activeCellId="0" sqref="H749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2045,10 +2134,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -3813,7 +3909,5345 @@
         <v>325.55</v>
       </c>
     </row>
+    <row r="247" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B252" s="0" t="n">
+        <v>28.51</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B253" s="0" t="n">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B254" s="0" t="n">
+        <v>29.83</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B255" s="0" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B256" s="0" t="n">
+        <v>33.81</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B257" s="0" t="n">
+        <v>37.39</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B258" s="0" t="n">
+        <v>41.49</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B259" s="0" t="n">
+        <v>44.12</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B260" s="0" t="n">
+        <v>47.93</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B261" s="0" t="n">
+        <v>55.55</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B262" s="0" t="n">
+        <v>60.21</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B263" s="0" t="n">
+        <v>67.23</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B264" s="0" t="n">
+        <v>70.12</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B265" s="0" t="n">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B266" s="0" t="n">
+        <v>76.92</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B267" s="0" t="n">
+        <v>78.77</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B268" s="0" t="n">
+        <v>91.73</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B269" s="0" t="n">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B270" s="0" t="n">
+        <v>115.47</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B271" s="0" t="n">
+        <v>127.34</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B272" s="0" t="n">
+        <v>145.73</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B273" s="0" t="n">
+        <v>168.27</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B274" s="0" t="n">
+        <v>191.92</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B275" s="0" t="n">
+        <v>214.47</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B276" s="0" t="n">
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B277" s="0" t="n">
+        <v>250.72</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B282" s="0" t="n">
+        <v>30.55</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B283" s="0" t="n">
+        <v>31.86</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B284" s="0" t="n">
+        <v>33.16</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B285" s="0" t="n">
+        <v>34.47</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B286" s="0" t="n">
+        <v>35.77</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B287" s="0" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B288" s="0" t="n">
+        <v>49.34</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B289" s="0" t="n">
+        <v>57.43</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B290" s="0" t="n">
+        <v>64.05</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B291" s="0" t="n">
+        <v>71.84</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B292" s="0" t="n">
+        <v>87.43</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B293" s="0" t="n">
+        <v>100.06</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B294" s="0" t="n">
+        <v>115.06</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B295" s="0" t="n">
+        <v>125.92</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B296" s="0" t="n">
+        <v>140.32</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B297" s="0" t="n">
+        <v>147.63</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B298" s="0" t="n">
+        <v>155.91</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B299" s="0" t="n">
+        <v>184.93</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B300" s="0" t="n">
+        <v>212.88</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B301" s="0" t="n">
+        <v>240.8</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B302" s="0" t="n">
+        <v>268.75</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B303" s="0" t="n">
+        <v>319.27</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B304" s="0" t="n">
+        <v>373.96</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B305" s="0" t="n">
+        <v>429.73</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B306" s="0" t="n">
+        <v>484.42</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B307" s="0" t="n">
+        <v>540.18</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B308" s="0" t="n">
+        <v>584.96</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B313" s="0" t="n">
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B314" s="0" t="n">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B315" s="0" t="n">
+        <v>29.53</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B316" s="0" t="n">
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B317" s="0" t="n">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B318" s="0" t="n">
+        <v>34.56</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B319" s="0" t="n">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B320" s="0" t="n">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B321" s="0" t="n">
+        <v>45.88</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B322" s="0" t="n">
+        <v>50.04</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B323" s="0" t="n">
+        <v>58.37</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B324" s="0" t="n">
+        <v>63.73</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B325" s="0" t="n">
+        <v>71.46</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B326" s="0" t="n">
+        <v>75.06</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B327" s="0" t="n">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B328" s="0" t="n">
+        <v>83.18</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B329" s="0" t="n">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B330" s="0" t="n">
+        <v>99.97</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B331" s="0" t="n">
+        <v>113.27</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B332" s="0" t="n">
+        <v>126.55</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B333" s="0" t="n">
+        <v>139.85</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B334" s="0" t="n">
+        <v>161.08</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B335" s="0" t="n">
+        <v>186.47</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B336" s="0" t="n">
+        <v>212.94</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B337" s="0" t="n">
+        <v>238.34</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B338" s="0" t="n">
+        <v>264.8</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B339" s="0" t="n">
+        <v>280.28</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B344" s="0" t="n">
+        <v>27.96</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B345" s="0" t="n">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B346" s="0" t="n">
+        <v>29.33</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B347" s="0" t="n">
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B348" s="0" t="n">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B349" s="0" t="n">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B350" s="0" t="n">
+        <v>37.86</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B351" s="0" t="n">
+        <v>42.12</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B352" s="0" t="n">
+        <v>44.91</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B353" s="0" t="n">
+        <v>48.86</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B354" s="0" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B355" s="0" t="n">
+        <v>61.77</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B356" s="0" t="n">
+        <v>69.12</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B357" s="0" t="n">
+        <v>72.31</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B358" s="0" t="n">
+        <v>79.07</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B359" s="0" t="n">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B360" s="0" t="n">
+        <v>81.82</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B361" s="0" t="n">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B362" s="0" t="n">
+        <v>107.9</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B363" s="0" t="n">
+        <v>120.39</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B364" s="0" t="n">
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B365" s="0" t="n">
+        <v>152.55</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B366" s="0" t="n">
+        <v>176.36</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B367" s="0" t="n">
+        <v>201.27</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B368" s="0" t="n">
+        <v>225.07</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B369" s="0" t="n">
+        <v>249.97</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B370" s="0" t="n">
+        <v>263.87</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B375" s="0" t="n">
+        <v>34.18</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B376" s="0" t="n">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B377" s="0" t="n">
+        <v>38.52</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B378" s="0" t="n">
+        <v>40.69</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B379" s="0" t="n">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B380" s="0" t="n">
+        <v>53.72</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B381" s="0" t="n">
+        <v>65.42</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B382" s="0" t="n">
+        <v>78.87</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B383" s="0" t="n">
+        <v>90.84</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B384" s="0" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B385" s="0" t="n">
+        <v>130.31</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B386" s="0" t="n">
+        <v>153.66</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B387" s="0" t="n">
+        <v>179.37</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B388" s="0" t="n">
+        <v>200.95</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B389" s="0" t="n">
+        <v>226.08</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B390" s="0" t="n">
+        <v>242.72</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B391" s="0" t="n">
+        <v>259.65</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B392" s="0" t="n">
+        <v>310.28</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B393" s="0" t="n">
+        <v>359.83</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B394" s="0" t="n">
+        <v>409.38</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B395" s="0" t="n">
+        <v>458.93</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B396" s="0" t="n">
+        <v>552.68</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B397" s="0" t="n">
+        <v>650.59</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B398" s="0" t="n">
+        <v>749.59</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B399" s="0" t="n">
+        <v>847.5</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B400" s="0" t="n">
+        <v>946.49</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B401" s="0" t="n">
+        <v>1034.49</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B406" s="0" t="n">
+        <v>29.18</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B407" s="0" t="n">
+        <v>30.16</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B408" s="0" t="n">
+        <v>31.13</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B409" s="0" t="n">
+        <v>32.11</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B410" s="0" t="n">
+        <v>33.09</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B411" s="0" t="n">
+        <v>37.99</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B412" s="0" t="n">
+        <v>43.26</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B413" s="0" t="n">
+        <v>49.32</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B414" s="0" t="n">
+        <v>53.91</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B415" s="0" t="n">
+        <v>59.68</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B416" s="0" t="n">
+        <v>71.21</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B417" s="0" t="n">
+        <v>79.79</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B418" s="0" t="n">
+        <v>90.73</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B419" s="0" t="n">
+        <v>97.53</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B420" s="0" t="n">
+        <v>107.89</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B421" s="0" t="n">
+        <v>111.66</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B422" s="0" t="n">
+        <v>116.67</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B423" s="0" t="n">
+        <v>137.51</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B424" s="0" t="n">
+        <v>157.29</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B425" s="0" t="n">
+        <v>177.04</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B426" s="0" t="n">
+        <v>196.81</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B427" s="0" t="n">
+        <v>230.98</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B428" s="0" t="n">
+        <v>269.32</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B429" s="0" t="n">
+        <v>308.75</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B430" s="0" t="n">
+        <v>347.09</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B431" s="0" t="n">
+        <v>386.5</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B432" s="0" t="n">
+        <v>414.92</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B437" s="0" t="n">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B438" s="0" t="n">
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B439" s="0" t="n">
+        <v>30.86</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B440" s="0" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B441" s="0" t="n">
+        <v>32.73</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B442" s="0" t="n">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B443" s="0" t="n">
+        <v>42.43</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B444" s="0" t="n">
+        <v>48.22</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B445" s="0" t="n">
+        <v>52.54</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B446" s="0" t="n">
+        <v>58.03</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B447" s="0" t="n">
+        <v>69.02</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B448" s="0" t="n">
+        <v>77.04</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B449" s="0" t="n">
+        <v>87.44</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B450" s="0" t="n">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B451" s="0" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B452" s="0" t="n">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B453" s="0" t="n">
+        <v>111.37</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B454" s="0" t="n">
+        <v>131.11</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B455" s="0" t="n">
+        <v>149.77</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B456" s="0" t="n">
+        <v>168.43</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B457" s="0" t="n">
+        <v>187.09</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B458" s="0" t="n">
+        <v>219.05</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B459" s="0" t="n">
+        <v>255.18</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B460" s="0" t="n">
+        <v>292.39</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B461" s="0" t="n">
+        <v>328.52</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B462" s="0" t="n">
+        <v>365.73</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B463" s="0" t="n">
+        <v>391.93</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B468" s="0" t="n">
+        <v>29.23</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B469" s="0" t="n">
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B470" s="0" t="n">
+        <v>31.21</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B471" s="0" t="n">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B472" s="0" t="n">
+        <v>33.19</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B473" s="0" t="n">
+        <v>38.14</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B474" s="0" t="n">
+        <v>43.48</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B475" s="0" t="n">
+        <v>49.62</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B476" s="0" t="n">
+        <v>54.28</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B477" s="0" t="n">
+        <v>60.12</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B478" s="0" t="n">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B479" s="0" t="n">
+        <v>80.53</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B480" s="0" t="n">
+        <v>91.61</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B481" s="0" t="n">
+        <v>98.57</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B482" s="0" t="n">
+        <v>109.07</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B483" s="0" t="n">
+        <v>112.97</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B484" s="0" t="n">
+        <v>118.1</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B485" s="0" t="n">
+        <v>139.25</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B486" s="0" t="n">
+        <v>159.31</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B487" s="0" t="n">
+        <v>179.37</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B488" s="0" t="n">
+        <v>199.44</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B489" s="0" t="n">
+        <v>234.21</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B490" s="0" t="n">
+        <v>273.14</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B491" s="0" t="n">
+        <v>313.17</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B492" s="0" t="n">
+        <v>352.09</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B493" s="0" t="n">
+        <v>392.11</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B494" s="0" t="n">
+        <v>421.12</v>
+      </c>
+    </row>
+    <row r="497" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A500" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B500" s="2"/>
+      <c r="C500" s="2"/>
+      <c r="D500" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E500" s="3"/>
+      <c r="F500" s="3"/>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B501" s="0" t="n">
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B502" s="0" t="n">
+        <v>28.51</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B503" s="0" t="n">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B504" s="0" t="n">
+        <v>29.83</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B505" s="0" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B506" s="0" t="n">
+        <v>33.81</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B507" s="0" t="n">
+        <v>37.39</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B508" s="0" t="n">
+        <v>41.49</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B509" s="0" t="n">
+        <v>44.12</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B510" s="0" t="n">
+        <v>47.93</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B511" s="0" t="n">
+        <v>55.55</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B512" s="0" t="n">
+        <v>60.21</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B513" s="0" t="n">
+        <v>67.23</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B514" s="0" t="n">
+        <v>70.12</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B515" s="0" t="n">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B516" s="0" t="n">
+        <v>76.92</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B517" s="0" t="n">
+        <v>78.77</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B518" s="0" t="n">
+        <v>91.73</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B519" s="0" t="n">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B520" s="0" t="n">
+        <v>115.47</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B521" s="0" t="n">
+        <v>127.34</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B522" s="0" t="n">
+        <v>145.73</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B523" s="0" t="n">
+        <v>168.27</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B524" s="0" t="n">
+        <v>191.92</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B525" s="0" t="n">
+        <v>214.47</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B526" s="0" t="n">
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B527" s="0" t="n">
+        <v>250.72</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B532" s="0" t="n">
+        <v>30.55</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B533" s="0" t="n">
+        <v>31.86</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B534" s="0" t="n">
+        <v>33.16</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B535" s="0" t="n">
+        <v>34.47</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B536" s="0" t="n">
+        <v>35.77</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B537" s="0" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B538" s="0" t="n">
+        <v>49.34</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B539" s="0" t="n">
+        <v>57.43</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B540" s="0" t="n">
+        <v>64.05</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B541" s="0" t="n">
+        <v>71.84</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B542" s="0" t="n">
+        <v>87.43</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B543" s="0" t="n">
+        <v>100.06</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B544" s="0" t="n">
+        <v>115.06</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B545" s="0" t="n">
+        <v>125.92</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B546" s="0" t="n">
+        <v>140.32</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B547" s="0" t="n">
+        <v>147.63</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B548" s="0" t="n">
+        <v>155.91</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B549" s="0" t="n">
+        <v>184.93</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B550" s="0" t="n">
+        <v>212.88</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B551" s="0" t="n">
+        <v>240.8</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B552" s="0" t="n">
+        <v>268.75</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B553" s="0" t="n">
+        <v>319.27</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B554" s="0" t="n">
+        <v>373.96</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B555" s="0" t="n">
+        <v>429.73</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B556" s="0" t="n">
+        <v>484.42</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B557" s="0" t="n">
+        <v>540.18</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B558" s="0" t="n">
+        <v>584.96</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B563" s="0" t="n">
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B564" s="0" t="n">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B565" s="0" t="n">
+        <v>29.53</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B566" s="0" t="n">
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B567" s="0" t="n">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B568" s="0" t="n">
+        <v>34.56</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B569" s="0" t="n">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B570" s="0" t="n">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B571" s="0" t="n">
+        <v>45.88</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B572" s="0" t="n">
+        <v>50.04</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B573" s="0" t="n">
+        <v>58.37</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B574" s="0" t="n">
+        <v>63.73</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B575" s="0" t="n">
+        <v>71.46</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B576" s="0" t="n">
+        <v>75.06</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B577" s="0" t="n">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B578" s="0" t="n">
+        <v>83.18</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B579" s="0" t="n">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B580" s="0" t="n">
+        <v>99.97</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B581" s="0" t="n">
+        <v>113.27</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B582" s="0" t="n">
+        <v>126.55</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B583" s="0" t="n">
+        <v>139.85</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B584" s="0" t="n">
+        <v>161.08</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B585" s="0" t="n">
+        <v>186.47</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B586" s="0" t="n">
+        <v>212.94</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B587" s="0" t="n">
+        <v>238.34</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B588" s="0" t="n">
+        <v>264.8</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B589" s="0" t="n">
+        <v>280.28</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B594" s="0" t="n">
+        <v>27.96</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B595" s="0" t="n">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B596" s="0" t="n">
+        <v>29.33</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B597" s="0" t="n">
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B598" s="0" t="n">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B599" s="0" t="n">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B600" s="0" t="n">
+        <v>37.86</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B601" s="0" t="n">
+        <v>42.12</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B602" s="0" t="n">
+        <v>44.91</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B603" s="0" t="n">
+        <v>48.86</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B604" s="0" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B605" s="0" t="n">
+        <v>61.77</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B606" s="0" t="n">
+        <v>69.12</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B607" s="0" t="n">
+        <v>72.31</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B608" s="0" t="n">
+        <v>79.07</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B609" s="0" t="n">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B610" s="0" t="n">
+        <v>81.82</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B611" s="0" t="n">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B612" s="0" t="n">
+        <v>107.9</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B613" s="0" t="n">
+        <v>120.39</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B614" s="0" t="n">
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B615" s="0" t="n">
+        <v>152.55</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B616" s="0" t="n">
+        <v>176.36</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B617" s="0" t="n">
+        <v>201.27</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B618" s="0" t="n">
+        <v>225.07</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B619" s="0" t="n">
+        <v>249.97</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B620" s="0" t="n">
+        <v>263.87</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B625" s="0" t="n">
+        <v>34.18</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B626" s="0" t="n">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B627" s="0" t="n">
+        <v>38.52</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B628" s="0" t="n">
+        <v>40.69</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B629" s="0" t="n">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B630" s="0" t="n">
+        <v>53.72</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B631" s="0" t="n">
+        <v>65.42</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B632" s="0" t="n">
+        <v>78.87</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B633" s="0" t="n">
+        <v>90.84</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B634" s="0" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B635" s="0" t="n">
+        <v>130.31</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B636" s="0" t="n">
+        <v>153.66</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B637" s="0" t="n">
+        <v>179.37</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B638" s="0" t="n">
+        <v>200.95</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B639" s="0" t="n">
+        <v>226.08</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B640" s="0" t="n">
+        <v>242.72</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B641" s="0" t="n">
+        <v>259.65</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B642" s="0" t="n">
+        <v>310.28</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B643" s="0" t="n">
+        <v>359.83</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B644" s="0" t="n">
+        <v>409.38</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B645" s="0" t="n">
+        <v>458.93</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B646" s="0" t="n">
+        <v>552.68</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B647" s="0" t="n">
+        <v>650.59</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B648" s="0" t="n">
+        <v>749.59</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B649" s="0" t="n">
+        <v>847.5</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B650" s="0" t="n">
+        <v>946.49</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B651" s="0" t="n">
+        <v>1034.49</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B656" s="0" t="n">
+        <v>29.18</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B657" s="0" t="n">
+        <v>30.16</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B658" s="0" t="n">
+        <v>31.13</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B659" s="0" t="n">
+        <v>32.11</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B660" s="0" t="n">
+        <v>33.09</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B661" s="0" t="n">
+        <v>37.99</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B662" s="0" t="n">
+        <v>43.26</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B663" s="0" t="n">
+        <v>49.32</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B664" s="0" t="n">
+        <v>53.91</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B665" s="0" t="n">
+        <v>59.68</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B666" s="0" t="n">
+        <v>71.21</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B667" s="0" t="n">
+        <v>79.79</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B668" s="0" t="n">
+        <v>90.73</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B669" s="0" t="n">
+        <v>97.53</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B670" s="0" t="n">
+        <v>107.89</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B671" s="0" t="n">
+        <v>111.66</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B672" s="0" t="n">
+        <v>116.67</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B673" s="0" t="n">
+        <v>137.51</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B674" s="0" t="n">
+        <v>157.29</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B675" s="0" t="n">
+        <v>177.04</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B676" s="0" t="n">
+        <v>196.81</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B677" s="0" t="n">
+        <v>230.98</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B678" s="0" t="n">
+        <v>269.32</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B679" s="0" t="n">
+        <v>308.75</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B680" s="0" t="n">
+        <v>347.09</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B681" s="0" t="n">
+        <v>386.5</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B682" s="0" t="n">
+        <v>414.92</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B687" s="0" t="n">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B688" s="0" t="n">
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B689" s="0" t="n">
+        <v>30.86</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B690" s="0" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B691" s="0" t="n">
+        <v>32.73</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B692" s="0" t="n">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B693" s="0" t="n">
+        <v>42.43</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B694" s="0" t="n">
+        <v>48.22</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B695" s="0" t="n">
+        <v>52.54</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B696" s="0" t="n">
+        <v>58.03</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B697" s="0" t="n">
+        <v>69.02</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B698" s="0" t="n">
+        <v>77.04</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B699" s="0" t="n">
+        <v>87.44</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B700" s="0" t="n">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B701" s="0" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B702" s="0" t="n">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B703" s="0" t="n">
+        <v>111.37</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B704" s="0" t="n">
+        <v>131.11</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B705" s="0" t="n">
+        <v>149.77</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B706" s="0" t="n">
+        <v>168.43</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B707" s="0" t="n">
+        <v>187.09</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B708" s="0" t="n">
+        <v>219.05</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B709" s="0" t="n">
+        <v>255.18</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B710" s="0" t="n">
+        <v>292.39</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B711" s="0" t="n">
+        <v>328.52</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B712" s="0" t="n">
+        <v>365.73</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B713" s="0" t="n">
+        <v>391.93</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B718" s="0" t="n">
+        <v>29.23</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B719" s="0" t="n">
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B720" s="0" t="n">
+        <v>31.21</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B721" s="0" t="n">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B722" s="0" t="n">
+        <v>33.19</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B723" s="0" t="n">
+        <v>38.14</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B724" s="0" t="n">
+        <v>43.48</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B725" s="0" t="n">
+        <v>49.62</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B726" s="0" t="n">
+        <v>54.28</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B727" s="0" t="n">
+        <v>60.12</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B728" s="0" t="n">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B729" s="0" t="n">
+        <v>80.53</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B730" s="0" t="n">
+        <v>91.61</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B731" s="0" t="n">
+        <v>98.57</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B732" s="0" t="n">
+        <v>109.07</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B733" s="0" t="n">
+        <v>112.97</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B734" s="0" t="n">
+        <v>118.1</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B735" s="0" t="n">
+        <v>139.25</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B736" s="0" t="n">
+        <v>159.31</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B737" s="0" t="n">
+        <v>179.37</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B738" s="0" t="n">
+        <v>199.44</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B739" s="0" t="n">
+        <v>234.21</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B740" s="0" t="n">
+        <v>273.14</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B741" s="0" t="n">
+        <v>313.17</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B742" s="0" t="n">
+        <v>352.09</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B743" s="0" t="n">
+        <v>392.11</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B744" s="0" t="n">
+        <v>421.12</v>
+      </c>
+    </row>
+    <row r="746" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A748" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B748" s="2"/>
+      <c r="C748" s="2"/>
+      <c r="D748" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E748" s="3"/>
+      <c r="F748" s="3"/>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B749" s="0" t="n">
+        <v>28.51</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B750" s="0" t="n">
+        <v>29.83</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B751" s="0" t="n">
+        <v>31.16</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B752" s="0" t="n">
+        <v>32.48</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B753" s="0" t="n">
+        <v>33.81</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B754" s="0" t="n">
+        <v>40.43</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B755" s="0" t="n">
+        <v>47.32</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B756" s="0" t="n">
+        <v>54.73</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B757" s="0" t="n">
+        <v>59.48</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B758" s="0" t="n">
+        <v>66.36</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B759" s="0" t="n">
+        <v>80.13</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B760" s="0" t="n">
+        <v>88.54</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B761" s="0" t="n">
+        <v>101.24</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B762" s="0" t="n">
+        <v>106.46</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B763" s="0" t="n">
+        <v>118.48</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B764" s="0" t="n">
+        <v>120.95</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B765" s="0" t="n">
+        <v>126.63</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B766" s="0" t="n">
+        <v>148.4</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B767" s="0" t="n">
+        <v>161.53</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B768" s="0" t="n">
+        <v>174.64</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B769" s="0" t="n">
+        <v>187.75</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B770" s="0" t="n">
+        <v>215.07</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B771" s="0" t="n">
+        <v>241.29</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B772" s="0" t="n">
+        <v>268.61</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B773" s="0" t="n">
+        <v>294.83</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B774" s="0" t="n">
+        <v>322.16</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B775" s="0" t="n">
+        <v>348.39</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B780" s="0" t="n">
+        <v>31.86</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B781" s="0" t="n">
+        <v>34.47</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B782" s="0" t="n">
+        <v>37.08</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B783" s="0" t="n">
+        <v>39.69</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B784" s="0" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B785" s="0" t="n">
+        <v>55.34</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B786" s="0" t="n">
+        <v>68.91</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B787" s="0" t="n">
+        <v>83.53</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B788" s="0" t="n">
+        <v>95.47</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B789" s="0" t="n">
+        <v>109.56</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B790" s="0" t="n">
+        <v>137.71</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B791" s="0" t="n">
+        <v>160.54</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B792" s="0" t="n">
+        <v>187.62</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B793" s="0" t="n">
+        <v>207.24</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B794" s="0" t="n">
+        <v>233.65</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B795" s="0" t="n">
+        <v>250.53</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B796" s="0" t="n">
+        <v>270.6</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B797" s="0" t="n">
+        <v>321.94</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B798" s="0" t="n">
+        <v>369.77</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B799" s="0" t="n">
+        <v>417.6</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B800" s="0" t="n">
+        <v>465.42</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B801" s="0" t="n">
+        <v>562.15</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B802" s="0" t="n">
+        <v>657.79</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B803" s="0" t="n">
+        <v>754.52</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B804" s="0" t="n">
+        <v>850.17</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B805" s="0" t="n">
+        <v>946.9</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B806" s="0" t="n">
+        <v>1042.55</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B811" s="0" t="n">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B812" s="0" t="n">
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B813" s="0" t="n">
+        <v>31.69</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B814" s="0" t="n">
+        <v>33.13</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B815" s="0" t="n">
+        <v>34.56</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B816" s="0" t="n">
+        <v>41.75</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B817" s="0" t="n">
+        <v>49.22</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B818" s="0" t="n">
+        <v>57.28</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B819" s="0" t="n">
+        <v>62.66</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B820" s="0" t="n">
+        <v>70.17</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B821" s="0" t="n">
+        <v>85.22</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B822" s="0" t="n">
+        <v>94.91</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B823" s="0" t="n">
+        <v>108.88</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B824" s="0" t="n">
+        <v>115.37</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B825" s="0" t="n">
+        <v>128.66</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B826" s="0" t="n">
+        <v>132.4</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B827" s="0" t="n">
+        <v>139.36</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B828" s="0" t="n">
+        <v>163.75</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B829" s="0" t="n">
+        <v>179.94</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B830" s="0" t="n">
+        <v>196.12</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B831" s="0" t="n">
+        <v>212.3</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B832" s="0" t="n">
+        <v>245.76</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B833" s="0" t="n">
+        <v>278.12</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B834" s="0" t="n">
+        <v>311.58</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A835" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B835" s="0" t="n">
+        <v>343.94</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A836" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B836" s="0" t="n">
+        <v>377.4</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A837" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B837" s="0" t="n">
+        <v>409.76</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A841" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A842" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B842" s="0" t="n">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A843" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B843" s="0" t="n">
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A844" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B844" s="0" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A845" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B845" s="0" t="n">
+        <v>32.77</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A846" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B846" s="0" t="n">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A847" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B847" s="0" t="n">
+        <v>41.02</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A848" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B848" s="0" t="n">
+        <v>48.17</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A849" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B849" s="0" t="n">
+        <v>55.86</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A850" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B850" s="0" t="n">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A851" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B851" s="0" t="n">
+        <v>68.06</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A852" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B852" s="0" t="n">
+        <v>82.38</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A853" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B853" s="0" t="n">
+        <v>91.37</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A854" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B854" s="0" t="n">
+        <v>104.64</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A855" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B855" s="0" t="n">
+        <v>110.42</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A856" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B856" s="0" t="n">
+        <v>123.01</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A857" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B857" s="0" t="n">
+        <v>126.04</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A858" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B858" s="0" t="n">
+        <v>132.28</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A859" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B859" s="0" t="n">
+        <v>155.23</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A860" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B860" s="0" t="n">
+        <v>169.71</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A861" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B861" s="0" t="n">
+        <v>184.19</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A862" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B862" s="0" t="n">
+        <v>198.66</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A863" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B863" s="0" t="n">
+        <v>228.7</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A864" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B864" s="0" t="n">
+        <v>257.67</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A865" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B865" s="0" t="n">
+        <v>287.71</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A866" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B866" s="0" t="n">
+        <v>316.66</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A867" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B867" s="0" t="n">
+        <v>346.71</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A868" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B868" s="0" t="n">
+        <v>375.67</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A872" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A873" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B873" s="0" t="n">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A874" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B874" s="0" t="n">
+        <v>40.69</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A875" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B875" s="0" t="n">
+        <v>45.04</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A876" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B876" s="0" t="n">
+        <v>49.37</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A877" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B877" s="0" t="n">
+        <v>53.72</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A878" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B878" s="0" t="n">
+        <v>75.4</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A879" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B879" s="0" t="n">
+        <v>97.96</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A880" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B880" s="0" t="n">
+        <v>122.25</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A881" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B881" s="0" t="n">
+        <v>143.88</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A882" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B882" s="0" t="n">
+        <v>167.64</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A883" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B883" s="0" t="n">
+        <v>215.17</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A884" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B884" s="0" t="n">
+        <v>257.36</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A885" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B885" s="0" t="n">
+        <v>303.82</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A886" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B886" s="0" t="n">
+        <v>342.79</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A887" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B887" s="0" t="n">
+        <v>388.57</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A888" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B888" s="0" t="n">
+        <v>424.81</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A889" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B889" s="0" t="n">
+        <v>464.24</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A890" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B890" s="0" t="n">
+        <v>555.36</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A891" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B891" s="0" t="n">
+        <v>649.87</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A892" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B892" s="0" t="n">
+        <v>744.37</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A893" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B893" s="0" t="n">
+        <v>838.87</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A894" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B894" s="0" t="n">
+        <v>1028.97</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A895" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B895" s="0" t="n">
+        <v>1217.98</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A896" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B896" s="0" t="n">
+        <v>1408.07</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A897" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B897" s="0" t="n">
+        <v>1597.07</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A898" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B898" s="0" t="n">
+        <v>1787.17</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A899" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B899" s="0" t="n">
+        <v>1976.18</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A903" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A904" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B904" s="0" t="n">
+        <v>30.62</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A905" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B905" s="0" t="n">
+        <v>32.74</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A906" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B906" s="0" t="n">
+        <v>34.88</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A907" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B907" s="0" t="n">
+        <v>37.02</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A908" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B908" s="0" t="n">
+        <v>39.15</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A909" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B909" s="0" t="n">
+        <v>49.81</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A910" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B910" s="0" t="n">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A911" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B911" s="0" t="n">
+        <v>72.84</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A912" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B912" s="0" t="n">
+        <v>82.11</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A913" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B913" s="0" t="n">
+        <v>93.52</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A914" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B914" s="0" t="n">
+        <v>116.34</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A915" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B915" s="0" t="n">
+        <v>133.81</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A916" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B916" s="0" t="n">
+        <v>155.56</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A917" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B917" s="0" t="n">
+        <v>169.83</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A918" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B918" s="0" t="n">
+        <v>190.9</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A919" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B919" s="0" t="n">
+        <v>202.43</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A920" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B920" s="0" t="n">
+        <v>217.16</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A921" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B921" s="0" t="n">
+        <v>257.53</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A922" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B922" s="0" t="n">
+        <v>292.48</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B923" s="0" t="n">
+        <v>327.41</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B924" s="0" t="n">
+        <v>362.35</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B925" s="0" t="n">
+        <v>433.32</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A926" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B926" s="0" t="n">
+        <v>503.2</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A927" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B927" s="0" t="n">
+        <v>574.16</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B928" s="0" t="n">
+        <v>644.04</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A929" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B929" s="0" t="n">
+        <v>715.01</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A930" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B930" s="0" t="n">
+        <v>784.89</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A935" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B935" s="0" t="n">
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A936" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B936" s="0" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B937" s="0" t="n">
+        <v>33.67</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A938" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B938" s="0" t="n">
+        <v>35.52</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A939" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B939" s="0" t="n">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A940" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B940" s="0" t="n">
+        <v>46.73</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A941" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B941" s="0" t="n">
+        <v>56.44</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A942" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B942" s="0" t="n">
+        <v>66.89</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A943" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B943" s="0" t="n">
+        <v>74.69</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A944" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B944" s="0" t="n">
+        <v>84.61</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A945" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B945" s="0" t="n">
+        <v>104.45</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B946" s="0" t="n">
+        <v>118.96</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A947" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B947" s="0" t="n">
+        <v>137.73</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A948" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B948" s="0" t="n">
+        <v>149.04</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A949" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B949" s="0" t="n">
+        <v>167.14</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A950" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B950" s="0" t="n">
+        <v>175.7</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A951" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B951" s="0" t="n">
+        <v>187.45</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A952" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B952" s="0" t="n">
+        <v>221.72</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A953" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B953" s="0" t="n">
+        <v>249.51</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A954" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B954" s="0" t="n">
+        <v>277.29</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A955" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B955" s="0" t="n">
+        <v>305.06</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A956" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B956" s="0" t="n">
+        <v>361.71</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A957" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B957" s="0" t="n">
+        <v>417.25</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B958" s="0" t="n">
+        <v>473.9</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B959" s="0" t="n">
+        <v>529.46</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B960" s="0" t="n">
+        <v>586.1</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B961" s="0" t="n">
+        <v>641.66</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B966" s="0" t="n">
+        <v>30.69</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B967" s="0" t="n">
+        <v>32.85</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B968" s="0" t="n">
+        <v>35.01</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B969" s="0" t="n">
+        <v>37.17</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A970" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B970" s="0" t="n">
+        <v>39.34</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A971" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B971" s="0" t="n">
+        <v>50.13</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A972" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B972" s="0" t="n">
+        <v>61.37</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A973" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B973" s="0" t="n">
+        <v>73.47</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B974" s="0" t="n">
+        <v>82.89</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B975" s="0" t="n">
+        <v>94.46</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B976" s="0" t="n">
+        <v>117.59</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A977" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B977" s="0" t="n">
+        <v>135.39</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B978" s="0" t="n">
+        <v>157.45</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B979" s="0" t="n">
+        <v>172.03</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A980" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B980" s="0" t="n">
+        <v>193.42</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A981" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B981" s="0" t="n">
+        <v>205.26</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B982" s="0" t="n">
+        <v>220.3</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A983" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B983" s="0" t="n">
+        <v>261.32</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B984" s="0" t="n">
+        <v>297.02</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A985" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B985" s="0" t="n">
+        <v>332.72</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A986" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B986" s="0" t="n">
+        <v>368.42</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A987" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B987" s="0" t="n">
+        <v>440.89</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B988" s="0" t="n">
+        <v>512.29</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A989" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B989" s="0" t="n">
+        <v>584.77</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B990" s="0" t="n">
+        <v>656.16</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B991" s="0" t="n">
+        <v>728.65</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B992" s="0" t="n">
+        <v>800.05</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="D250:F250"/>
+    <mergeCell ref="A500:C500"/>
+    <mergeCell ref="D500:F500"/>
+    <mergeCell ref="A748:C748"/>
+    <mergeCell ref="D748:F748"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
